--- a/2_IA_and_content_strategy/content-delivery-schedule.xlsx
+++ b/2_IA_and_content_strategy/content-delivery-schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/99901037/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian Harding\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036A3F7E-8D89-E744-B0C6-9A55CA2AF6E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB559082-A5C5-4B45-8295-371D787C66C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16620" xr2:uid="{59C649F4-4D4F-B040-A019-77FEC042E7DC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{59C649F4-4D4F-B040-A019-77FEC042E7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="58">
   <si>
     <t>index.html</t>
   </si>
@@ -71,24 +71,6 @@
     <t>Twitter, FB, Insta</t>
   </si>
   <si>
-    <t xml:space="preserve">metro guide, manchester cuisine, </t>
-  </si>
-  <si>
-    <t>Freddy</t>
-  </si>
-  <si>
-    <t>Majid</t>
-  </si>
-  <si>
-    <t>Sally</t>
-  </si>
-  <si>
-    <t>3 x product images</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Introductory text (300 words) plus heading and tagline.</t>
   </si>
   <si>
@@ -105,6 +87,125 @@
   </si>
   <si>
     <t>This is an example, edit for your home page.</t>
+  </si>
+  <si>
+    <t>Locations/Places to Buy.html</t>
+  </si>
+  <si>
+    <t>Seasonal.html</t>
+  </si>
+  <si>
+    <t>News.html</t>
+  </si>
+  <si>
+    <t>Contact Details.html</t>
+  </si>
+  <si>
+    <t>Social Media.html</t>
+  </si>
+  <si>
+    <t>Latest Trends.html</t>
+  </si>
+  <si>
+    <t>Login.html</t>
+  </si>
+  <si>
+    <t>About us.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None </t>
+  </si>
+  <si>
+    <t>About us text (100 words) plus heading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x Logo Image </t>
+  </si>
+  <si>
+    <t>Sam H</t>
+  </si>
+  <si>
+    <t>Jack F</t>
+  </si>
+  <si>
+    <t>Sam S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logo image 
+1 x Fallowfield Image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twitter, Facebook, Insta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop front images + Examples of clothing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small introductory text on the best places/locations to buy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seasonal images  (Autumn, Winter, Spring, Summer). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explanation of why different seasons require 
+different styles (approx 100 words) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relevant brand icons and links to their websites. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text snippets from latest news articles. </t>
+  </si>
+  <si>
+    <t>British Vogue, GQ, Business of Fashion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small images to accompany news articles, relevant to subject. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact us form. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fallowfield fashion logo image </t>
+  </si>
+  <si>
+    <t>Twitter, Insta, Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images of latest styles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decsription of what the latest trend is. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASOS, Carhartt, JD, TK Maxx. </t>
+  </si>
+  <si>
+    <t>Fallowfield, Fashion, styles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login form </t>
+  </si>
+  <si>
+    <t>Leon H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About us, Fashio, students, trends </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shops, buying, clothes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seasons, Winter, Summer, styles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">News, trends, clothes, fashion. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trends, styles, fashion. </t>
   </si>
 </sst>
 </file>
@@ -112,8 +213,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -150,76 +251,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -242,7 +346,7 @@
     <tableColumn id="2" xr3:uid="{958E2AEF-FB67-EC48-B48C-085F13E78F14}" name="index.html"/>
     <tableColumn id="3" xr3:uid="{1065339D-E502-C348-9F02-C81C49ACCBBA}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{7FFB1AC7-1E10-AE4C-8029-219285BD1711}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{D6F41D01-257C-DD4C-9A11-C1CEDBD66814}" name="Date required" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D6F41D01-257C-DD4C-9A11-C1CEDBD66814}" name="Date required" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -256,7 +360,7 @@
     <tableColumn id="2" xr3:uid="{62E67C1C-6A09-B94A-A68E-5B35DDB3C3BA}" name="page.html"/>
     <tableColumn id="3" xr3:uid="{E07E96B7-250E-3C45-88E9-3252EDD96A3A}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{DD53007F-AC97-5548-908E-0A94C8B7E740}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{5EF032B3-F3C2-1740-AF07-C13CD433DAF3}" name="Date required" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{5EF032B3-F3C2-1740-AF07-C13CD433DAF3}" name="Date required" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -270,7 +374,7 @@
     <tableColumn id="2" xr3:uid="{A97DF322-16E4-B544-BB0B-D061F89CCDCA}" name="page.html"/>
     <tableColumn id="3" xr3:uid="{C8EB4A50-1834-0548-B753-58B77A4A1BE6}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{D60C435C-9AB2-5F4B-921D-42774718B220}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{735E01E4-0F85-9842-AF69-FE3BBFE8217E}" name="Date required" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{735E01E4-0F85-9842-AF69-FE3BBFE8217E}" name="Date required" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -284,7 +388,7 @@
     <tableColumn id="2" xr3:uid="{6B571582-8D10-3A43-B520-9B2B8137484A}" name="page.html"/>
     <tableColumn id="3" xr3:uid="{46B38E80-C7FB-D249-82F4-BAA04B2DEF13}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{9FE8F3CA-14D0-8048-8E21-8347E2495712}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{B541E6BA-4164-5744-A0C3-B950A998BA65}" name="Date required" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{B541E6BA-4164-5744-A0C3-B950A998BA65}" name="Date required" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -298,7 +402,7 @@
     <tableColumn id="2" xr3:uid="{59ED7945-525F-814C-837A-CCEC029285A8}" name="page.html"/>
     <tableColumn id="3" xr3:uid="{29589C5E-A766-8E4A-86DE-87BFE6D9DD22}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{2645F20F-6FBE-9649-A5AB-F6BF31753685}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{97DDC30C-607F-5B4D-BC8E-0793AF6476D7}" name="Date required" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{97DDC30C-607F-5B4D-BC8E-0793AF6476D7}" name="Date required" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -312,7 +416,7 @@
     <tableColumn id="2" xr3:uid="{3F6D7124-91F3-3242-8D5E-D1AE6707AA00}" name="page.html"/>
     <tableColumn id="3" xr3:uid="{59973032-12B2-5D44-9F03-2206FBB1C7D2}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{59D40A8C-3188-864F-AA3C-C7ADBECE6897}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{17C1C3B2-8AD2-9C49-9999-28DE1B85BE39}" name="Date required" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{17C1C3B2-8AD2-9C49-9999-28DE1B85BE39}" name="Date required" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -326,7 +430,7 @@
     <tableColumn id="2" xr3:uid="{0A1BAEA9-EC6B-7C4F-9508-66F694741D31}" name="page.html"/>
     <tableColumn id="3" xr3:uid="{BDDCD5FD-071E-4845-9222-645D9E45078F}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{6E989D0C-58B9-504B-97B3-420694B2F87A}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{809A8191-90E8-E741-91CD-DE5AE84B1BDA}" name="Date required" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{809A8191-90E8-E741-91CD-DE5AE84B1BDA}" name="Date required" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -340,7 +444,7 @@
     <tableColumn id="2" xr3:uid="{04DAA0B1-8D1E-404A-8D75-563DA8D594CB}" name="page.html"/>
     <tableColumn id="3" xr3:uid="{506A82EE-1BEA-B749-9CEE-24EB978FE32C}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{4DDEB6A8-F295-FB40-83C2-1826E1F6D60E}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{2999C4BF-5A3D-FB4E-B51B-8AF487A73878}" name="Date required" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{2999C4BF-5A3D-FB4E-B51B-8AF487A73878}" name="Date required" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -354,7 +458,7 @@
     <tableColumn id="2" xr3:uid="{0D827C3F-455B-C74C-B5D5-40186DA571B6}" name="page.html"/>
     <tableColumn id="3" xr3:uid="{35F156A8-E251-664A-968C-538D22772DCA}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{A2227919-E59D-C942-8299-048BDCDBB58A}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{32BCAFA8-1927-C44F-9D30-D3D4CF291899}" name="Date required" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{32BCAFA8-1927-C44F-9D30-D3D4CF291899}" name="Date required" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -368,7 +472,7 @@
     <tableColumn id="2" xr3:uid="{FF773E6D-9BD6-AF44-9E88-7E730CF6B08C}" name="page.html"/>
     <tableColumn id="3" xr3:uid="{1A4598D9-9A6A-AE45-BD96-9A34ACEA793E}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{02585EFC-481A-8043-A31D-FA4E302F076E}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{22CF93D4-6A61-0541-AF57-513448FD426A}" name="Date required" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{22CF93D4-6A61-0541-AF57-513448FD426A}" name="Date required" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -382,7 +486,7 @@
     <tableColumn id="2" xr3:uid="{49187ADC-E09F-BA4C-8262-CFDF3F1460EA}" name="page.html"/>
     <tableColumn id="3" xr3:uid="{09A7466A-4731-224E-983E-63A4BD36AB28}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{D1C00D07-B307-394F-98BC-521C2DFF0D82}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{5DF2BA6D-4025-EA4A-B142-555CCDB3384C}" name="Date required" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{5DF2BA6D-4025-EA4A-B142-555CCDB3384C}" name="Date required" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -393,10 +497,10 @@
   <autoFilter ref="A7:E12" xr:uid="{3398F59E-202B-884D-A1D8-B2D16C3884C2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6BE69E17-5EE7-9142-88E2-F289963F6EF1}" name="Media"/>
-    <tableColumn id="2" xr3:uid="{BCA53C14-CB7A-914B-A3EB-019BCB885800}" name="page.html"/>
+    <tableColumn id="2" xr3:uid="{BCA53C14-CB7A-914B-A3EB-019BCB885800}" name="About us.html"/>
     <tableColumn id="3" xr3:uid="{50E90A1D-32B2-DD48-AFCF-79D8365A6E91}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{D197E312-24C0-174B-8737-EB4A2EE890EA}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{1485DC0E-F3F8-574B-9B19-6EA8EDD9FB87}" name="Date required" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{1485DC0E-F3F8-574B-9B19-6EA8EDD9FB87}" name="Date required" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -410,7 +514,7 @@
     <tableColumn id="2" xr3:uid="{A0ECE31A-3EE6-A248-9FB1-2898FE232CF9}" name="page.html"/>
     <tableColumn id="3" xr3:uid="{1E6C1E9E-36CE-0049-8CEF-0FDD1BE7D4A0}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{4BD90EC6-3F70-DA41-B4C0-87564513EE39}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{9257F6C2-BA5E-9E47-A240-A49CDF7B4C02}" name="Date required" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{9257F6C2-BA5E-9E47-A240-A49CDF7B4C02}" name="Date required" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -421,10 +525,10 @@
   <autoFilter ref="A13:E18" xr:uid="{6EBA447D-71A9-AC4B-9FE5-3C6A82F747C4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{273CC289-0B3D-6C4B-B978-34CB45956BFF}" name="Media"/>
-    <tableColumn id="2" xr3:uid="{359435F9-B94A-694B-8223-53E93F93667D}" name="page.html"/>
+    <tableColumn id="2" xr3:uid="{359435F9-B94A-694B-8223-53E93F93667D}" name="Locations/Places to Buy.html"/>
     <tableColumn id="3" xr3:uid="{F8A8266B-B318-4240-920A-CC0EF786E93C}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{A788AF30-1FA9-B74B-9652-DAC7322E6FFF}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{AB06EF93-7313-E443-BE49-57B008548CE1}" name="Date required" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{AB06EF93-7313-E443-BE49-57B008548CE1}" name="Date required" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -435,10 +539,10 @@
   <autoFilter ref="A19:E24" xr:uid="{98758633-6FD4-A245-992C-6AF95DC33A4B}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{93824A28-9EDB-AD4F-9273-55639135E1AC}" name="Media"/>
-    <tableColumn id="2" xr3:uid="{06DD0589-A8F4-4F4A-A2A3-DAD76D61B329}" name="page.html"/>
+    <tableColumn id="2" xr3:uid="{06DD0589-A8F4-4F4A-A2A3-DAD76D61B329}" name="Seasonal.html"/>
     <tableColumn id="3" xr3:uid="{BFC097E6-A18D-2247-9397-73909C319E75}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{FA05715F-C814-A847-8916-671530C10345}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{06C4F347-0F94-A743-ABCD-A8E786E0BE08}" name="Date required" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{06C4F347-0F94-A743-ABCD-A8E786E0BE08}" name="Date required" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -449,10 +553,10 @@
   <autoFilter ref="A25:E30" xr:uid="{604C676C-A63A-994D-93FE-FB56430A4665}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{68D0A62C-9774-594C-93C2-101B5F98EE82}" name="Media"/>
-    <tableColumn id="2" xr3:uid="{5EC13566-C6C9-BC44-88AA-D709DC3F7E42}" name="page.html"/>
+    <tableColumn id="2" xr3:uid="{5EC13566-C6C9-BC44-88AA-D709DC3F7E42}" name="News.html"/>
     <tableColumn id="3" xr3:uid="{B8CE4894-B259-FE4A-9509-76DC54449C2C}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{29038D48-43D6-9E4D-836B-91A4A842F067}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{5775B26E-AD20-5747-B106-F0E32E1A58F3}" name="Date required" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{5775B26E-AD20-5747-B106-F0E32E1A58F3}" name="Date required" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -463,10 +567,10 @@
   <autoFilter ref="A31:E36" xr:uid="{F8D7CC9A-50EA-9B4C-952D-D5117B458C6E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B159F7EE-AF13-E04A-8F25-47363E17CAA8}" name="Media"/>
-    <tableColumn id="2" xr3:uid="{F4F41F44-E733-0E46-B1EC-C216FEE18155}" name="page.html"/>
+    <tableColumn id="2" xr3:uid="{F4F41F44-E733-0E46-B1EC-C216FEE18155}" name="Contact Details.html"/>
     <tableColumn id="3" xr3:uid="{B80C140D-652E-904B-82F9-B36D4938A610}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{237ADE9F-6E86-8840-AFAA-D8FD2AD00E53}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{F64C3EE9-5E5A-B247-A91D-B6207D27D642}" name="Date required" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{F64C3EE9-5E5A-B247-A91D-B6207D27D642}" name="Date required" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -477,10 +581,10 @@
   <autoFilter ref="A37:E42" xr:uid="{4899E6A2-7F1B-E54F-BE60-1740D5609F43}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B42C9531-0CD0-F445-92AD-5E0B90807B75}" name="Media"/>
-    <tableColumn id="2" xr3:uid="{3D4FBACE-6DDF-A146-84E4-5E266A738917}" name="page.html"/>
+    <tableColumn id="2" xr3:uid="{3D4FBACE-6DDF-A146-84E4-5E266A738917}" name="Social Media.html"/>
     <tableColumn id="3" xr3:uid="{EA2D7418-7867-514B-B221-F0C3F40C124D}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{530B5AA0-9BE9-D64A-93E1-6F2CAC5D572A}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{C494190A-CD34-3249-B5EB-38BD4A05067A}" name="Date required" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{C494190A-CD34-3249-B5EB-38BD4A05067A}" name="Date required" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -491,10 +595,10 @@
   <autoFilter ref="A43:E48" xr:uid="{D2E44D69-876C-B94B-9A62-93731B0FFF28}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{16B15F71-AAFC-2047-98B1-707F4578BA1D}" name="Media"/>
-    <tableColumn id="2" xr3:uid="{D570EDE1-E084-C143-AE57-DF652C0D3BA6}" name="page.html"/>
+    <tableColumn id="2" xr3:uid="{D570EDE1-E084-C143-AE57-DF652C0D3BA6}" name="Latest Trends.html"/>
     <tableColumn id="3" xr3:uid="{07342D8D-B101-264F-904C-DD20399F3BE2}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{2ABE01BB-B967-C642-9FCC-DC4952637E1D}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{35BC182B-2C50-774D-8231-1D5AA63FB086}" name="Date required" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{35BC182B-2C50-774D-8231-1D5AA63FB086}" name="Date required" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -505,10 +609,10 @@
   <autoFilter ref="A49:E54" xr:uid="{CCDC1B0A-DF48-284F-9006-6744B9220E5C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E50ABD7D-BA71-0341-95AC-2E39F537F115}" name="Media"/>
-    <tableColumn id="2" xr3:uid="{D9E7E798-1076-7E4F-981B-020911CE79D9}" name="page.html"/>
+    <tableColumn id="2" xr3:uid="{D9E7E798-1076-7E4F-981B-020911CE79D9}" name="Login.html"/>
     <tableColumn id="3" xr3:uid="{B114E276-F763-1049-B4F7-7B7DA3BDCE7C}" name="Keywords"/>
     <tableColumn id="4" xr3:uid="{AAC5EE6F-8473-2740-8BE4-D13EC9F685F8}" name="Author"/>
-    <tableColumn id="5" xr3:uid="{E87DDFB9-33D9-394C-95EE-20F6601503BE}" name="Date required" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{E87DDFB9-33D9-394C-95EE-20F6601503BE}" name="Date required" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -813,11 +917,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C292204A-99D7-DB46-B623-40D0FE8C09A0}">
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
@@ -826,9 +930,9 @@
     <col min="6" max="6" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -843,47 +947,47 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2">
-        <v>43811</v>
+        <v>45016</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2">
-        <v>43840</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -891,27 +995,24 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2">
-        <v>43840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E5" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -919,18 +1020,18 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2">
-        <v>43811</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -942,12 +1043,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45016</v>
+      </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -965,36 +1078,60 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -1006,37 +1143,73 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1048,37 +1221,73 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1090,37 +1299,73 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
         <v>22</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1132,37 +1377,64 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1174,37 +1446,52 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1216,37 +1503,73 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -1258,34 +1581,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -1300,34 +1644,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
@@ -1342,34 +1686,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
@@ -1384,34 +1728,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -1426,34 +1770,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
@@ -1468,34 +1812,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
@@ -1510,34 +1854,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
@@ -1552,34 +1896,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B97" t="s">
         <v>1</v>
@@ -1594,34 +1938,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B103" t="s">
         <v>1</v>
@@ -1636,34 +1980,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B109" t="s">
         <v>1</v>
@@ -1678,34 +2022,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B115" t="s">
         <v>1</v>
@@ -1720,27 +2064,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>11</v>
       </c>
